--- a/biology/Médecine/Fluide_respiratoire/Fluide_respiratoire.xlsx
+++ b/biology/Médecine/Fluide_respiratoire/Fluide_respiratoire.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Bien que dans la grande majorité des cas, la respiration se fasse à partir de l'air, il est envisageable, notamment pour des raisons médicales, d'utiliser d'autres fluides, que ce soit d'autres gaz ou un liquide. Par contre, un fluide respiratoire doit absolument contenir une part d'oxygène. 
 Actuellement, la technique de ventilation liquidienne totale n'a jamais été expérimentée sur l'homme. Mais plusieurs laboratoires travaillent à perfectionner un respirateur médical qui ne permet qu'une ventilation partielle à usage médical. 
-En revanche, des études sur la ventilation liquidienne partielle montrent qu'il y a débat quant à l’intérêt médical de son utilisation[1]. 
+En revanche, des études sur la ventilation liquidienne partielle montrent qu'il y a débat quant à l’intérêt médical de son utilisation. 
 </t>
         </is>
       </c>
@@ -515,8 +527,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Gaz
-air : mélange 78 % de diazote, 21 % de dioxygène, 0,9 % d'argon, 0,03 % de dioxyde de carbone et divers gaz nobles : gaz utilisé dans la majorité des cas
+          <t>Gaz</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>air : mélange 78 % de diazote, 21 % de dioxygène, 0,9 % d'argon, 0,03 % de dioxyde de carbone et divers gaz nobles : gaz utilisé dans la majorité des cas
 dioxygène pur : toxique pour les animaux en général
 protoxyde d'azote : gaz anesthésique aussi appelé « gaz hilarant » pour ses effets euphorisants
 Entonox : mélange O2 - Protoxyde d'azote
@@ -526,9 +543,7 @@
 hydreliox : mélange composé d'hélium, d'oxygène et d'hydrogène
 hydrox : mélange oxygène/hydrogène (plongée sous-marine très profonde)
 nitrox: mélange pauvre en azote, avec de l'oxygène
-trimix : mélange azote-hélium-oxygène
-Liquide
-Perfluorocarbure : pour la ventilation liquidienne (respiration par liquide)</t>
+trimix : mélange azote-hélium-oxygène</t>
         </is>
       </c>
     </row>
@@ -553,13 +568,51 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Liste des fluides respiratoires</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Liquide</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Perfluorocarbure : pour la ventilation liquidienne (respiration par liquide)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Fluide_respiratoire</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fluide_respiratoire</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Dans la culture populaire</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Une scène fameuse — et non truquée — du film Abyss (1989) de James Cameron montre l'immersion d'un rat, emprisonné dans une cage, qui respire un fluide de perfluocarbone. 
-Cela a attiré les foudres des associations de protection d'animaux : cette scène a même été supprimée de la version sortie au Royaume-Uni[2].
+Cela a attiré les foudres des associations de protection d'animaux : cette scène a même été supprimée de la version sortie au Royaume-Uni.
 </t>
         </is>
       </c>
